--- a/Data/Predictions/CopenhagenBurials_05_manual_check.xlsx
+++ b/Data/Predictions/CopenhagenBurials_05_manual_check.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Dropbox\PhD\HISCO clean\Data\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0946587F-4C30-4FD3-996E-8ABF9B776215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2329FC87-B720-472B-9C5B-2E946574F336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CopenhagenBurials_05" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="336">
   <si>
     <t>hisco_1</t>
   </si>
@@ -1004,12 +1017,36 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>0.43842348</t>
+  </si>
+  <si>
+    <t>0.40052763</t>
+  </si>
+  <si>
+    <t>Painter, Artist</t>
+  </si>
+  <si>
+    <t>0.42022806</t>
+  </si>
+  <si>
+    <t>0.48497698</t>
+  </si>
+  <si>
+    <t>University and Higher Education Teacher, Subject Unknown</t>
+  </si>
+  <si>
+    <t>0.38576847</t>
+  </si>
+  <si>
+    <t>Tool Grinder, Machine Tools</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1488,9 +1525,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Farve1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1539,7 +1577,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1848,11 +1886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,7 +1917,7 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f>AVERAGE(A3:A202)</f>
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2200,7 +2238,7 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C12">
@@ -2343,13 +2381,19 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
+      <c r="C17">
+        <v>22000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>328</v>
+      </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
@@ -2600,7 +2644,7 @@
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C26">
@@ -2629,7 +2673,7 @@
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C27">
@@ -4320,7 +4364,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="s">
         <v>176</v>
@@ -4334,8 +4378,14 @@
       <c r="E86" t="s">
         <v>175</v>
       </c>
+      <c r="F86">
+        <v>13100</v>
+      </c>
+      <c r="G86" t="s">
+        <v>332</v>
+      </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>333</v>
       </c>
       <c r="K86" t="s">
         <v>18</v>
@@ -5224,8 +5274,14 @@
       <c r="B117" t="s">
         <v>215</v>
       </c>
+      <c r="C117">
+        <v>16130</v>
+      </c>
+      <c r="D117" t="s">
+        <v>329</v>
+      </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="H117" t="s">
         <v>18</v>
@@ -5943,8 +5999,14 @@
       <c r="B142" t="s">
         <v>253</v>
       </c>
+      <c r="C142">
+        <v>79510</v>
+      </c>
+      <c r="D142" t="s">
+        <v>331</v>
+      </c>
       <c r="E142" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="H142" t="s">
         <v>18</v>
@@ -6468,8 +6530,14 @@
       <c r="E160" t="s">
         <v>274</v>
       </c>
+      <c r="F160">
+        <v>83530</v>
+      </c>
+      <c r="G160" t="s">
+        <v>334</v>
+      </c>
       <c r="H160" t="s">
-        <v>18</v>
+        <v>335</v>
       </c>
       <c r="K160" t="s">
         <v>18</v>
